--- a/neutralization_assays/data/neut_plate_reader_data/fPitt1postinf_NeutralizationAssay.xlsx
+++ b/neutralization_assays/data/neut_plate_reader_data/fPitt1postinf_NeutralizationAssay.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40020" yWindow="5740" windowWidth="26840" windowHeight="11560" activeTab="5"/>
+    <workbookView xWindow="33460" yWindow="460" windowWidth="28260" windowHeight="18300" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -676,12 +676,6 @@
     <t>ms</t>
   </si>
   <si>
-    <t>Part of Plate</t>
-  </si>
-  <si>
-    <t>B1-G12</t>
-  </si>
-  <si>
     <t>Start Time:</t>
   </si>
   <si>
@@ -773,6 +767,12 @@
   </si>
   <si>
     <t>4/26/2019 10:24:23 AM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1198,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1403,67 +1405,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>40</v>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>11210</v>
@@ -1504,7 +1503,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>28796</v>
@@ -1545,7 +1544,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>25278</v>
@@ -1586,7 +1585,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>27330</v>
@@ -1627,7 +1626,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>26119</v>
@@ -1668,7 +1667,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>26139</v>
@@ -1707,12 +1706,17 @@
         <v>29444</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1726,7 +1730,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1768,7 +1772,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1932,67 +1936,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>52</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>8219</v>
@@ -2033,7 +2034,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>29484</v>
@@ -2074,7 +2075,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>27499</v>
@@ -2115,7 +2116,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>27436</v>
@@ -2156,7 +2157,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>28923</v>
@@ -2197,7 +2198,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>26135</v>
@@ -2236,12 +2237,17 @@
         <v>29580</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2254,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2297,7 +2303,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2461,67 +2467,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>56</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>6675</v>
@@ -2562,7 +2565,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>20496</v>
@@ -2603,7 +2606,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>21852</v>
@@ -2644,7 +2647,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>19398</v>
@@ -2685,7 +2688,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>19756</v>
@@ -2726,7 +2729,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>20204</v>
@@ -2765,12 +2768,17 @@
         <v>23804</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2783,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2826,7 +2834,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2990,67 +2998,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>59</v>
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>60</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>6804</v>
@@ -3091,7 +3096,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>28952</v>
@@ -3132,7 +3137,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>26790</v>
@@ -3173,7 +3178,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>23800</v>
@@ -3214,7 +3219,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>24293</v>
@@ -3255,7 +3260,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>21843</v>
@@ -3294,12 +3299,17 @@
         <v>26342</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3313,7 +3323,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3355,7 +3365,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3519,67 +3529,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>63</v>
+      <c r="B28" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>64</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>6284</v>
@@ -3620,7 +3627,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>33180</v>
@@ -3661,7 +3668,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>26137</v>
@@ -3702,7 +3709,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>20950</v>
@@ -3743,7 +3750,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>18547</v>
@@ -3784,7 +3791,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>17893</v>
@@ -3823,12 +3830,17 @@
         <v>26899</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3854,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3884,7 +3896,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4048,67 +4060,64 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>67</v>
+      <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>60</v>
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>8054</v>
@@ -4149,7 +4158,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>28279</v>
@@ -4190,7 +4199,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>29213</v>
@@ -4231,7 +4240,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>29148</v>
@@ -4272,7 +4281,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>30534</v>
@@ -4313,7 +4322,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>29520</v>
@@ -4352,12 +4361,17 @@
         <v>31671</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
